--- a/Final_project/dataset/raw_data/neutral_data.xlsx
+++ b/Final_project/dataset/raw_data/neutral_data.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="5JmD+Vbc+ERinIPQWR2nLEsr6aUo9fF8hHCADoF7jpc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="Qk6w0Le+bVpQGjABHTxZO+ytEj2G7yUuKqLnoA87By0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="1227">
   <si>
     <t>Rate</t>
   </si>
@@ -4594,12 +4594,109 @@
   <si>
     <t>Dc bạn giới thiệu nên mình đi thử. Mình vs ny order lẩu xúc xích 2 ng vs tokbokbi. Lẩu ăn ngon, đồ ăn nhiều ăn 2 ng mà mình mình nghĩ 4 ng ăn vẫn đủ. Tokbokbi thì vị ngọt k cay ăn k ngon lắm. Không gian quán nhỏ. Mở nhạc hàn hay. Mình thấy quán khá ổn sẽ quay lại khi có dịp</t>
   </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Giá nói chug là ko đắt ko rẻ nhưng sữa đậu nành cũng nước sốt ở món trứng cực cực cực kì kì kì ngon hé hé nghĩ lại vẫn thấy Nhg pate thì ko ngon lắm nên sau chắc gọi trứng ko pate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trà bụt giấm dâu tây ngon matcha macaron bình thườg cupcake siêu nhỏ nhưg cũg ko ngon đổi lại decor dễ thươg đúg kiểu bé bé xinh xinh</t>
+  </si>
+  <si>
+    <t>Thường thì cửa hàng PG nào mặt tiền cũng to đùng bắt mắt và ở Trần Đại Nghĩa càng siêu bắt mắt :)) thú thực trước giờ chỉ thích PG cái việc muốn ngồi bao lâu thì ngồi và rộng rãi thôi. Chứ bánh trái nước nôi thấy bình thường :)) Cơ mà ko biết do cơ sở này hay dạo này PG tiến bộ nữa. Nằm nhà thèm bánh năn nỉ được cậu bạn Bách Khoa tiện đường tạt qua mua bừa mà về ngon ra trò :)) nói chung khá ngạc nhiên. Chứ mấy lần ở Tôn đức thắng thấy ko ngon :3 cốt bánh xốp mềm kem lại ngậy nhưng ko ngấy. Tóm lại là gần trường mà chẳng bao giờ vào. Giờ thì thay đổi suy nghĩ rồi ạ :))</t>
+  </si>
+  <si>
+    <t>- Về không gian: Nhìn từ bên ngoài dễ gây hiểu lầm :D vì mặt ngoài vừa không đẹp vừa bé  tí xíu như quán cafe take a way. Mình dừng xe rồi mà vẫn nghĩ có nên vào hay không vì nghĩ chả có chỗ mà ngồi. Thì ra có một cửa nhỏ đi bên cạnh, bước vào thì mới biết nó sâu vào trong khá nhiều. Cảm giác như ngồi hầm rượu vì tối tối :) nhưng sắp đặt khá đặc biệt, có cảm giác thoải mái và riêng tư dù bàn vẫn hơi sát nhau.
+- Về món ăn: 
++ Menu không quá nhiều món, vẫn những món quen thuộc ở các quán Hàn nhưng trình bày hút mắt nên chưa gọi đã thấy hấp dẫn.  
++ Mình gọi miến trộn, chân gà om cay, salad bắp cải, ba chỉ tẩm mơ và lẩu sườn khoai tây. Ngoại trừ miến trộn quá ngọt và panchan không ngon thì các món còn lại đều đặc sắc. 
++ Thích nhất chân gà cay. Chân gà rút xương, sốt cay nóng sánh đặc cực ngấm, có bắp cải thái sợi ăn kèm rất ngon. 
++ Ba chỉ luộc mềm, nước sốt mơ ngon, ăn kèm lá vừng rất hợp. 
++ Điểm sáng là lẩu sườn khoai tây mỗi khi xem phim là rớt nước miếng. Hơi lâu mới có lẩu. Nồi to hơn 700K có 6 tảng sườn to được hầm mềm, thịt chín nhừ siêu ngon. Khoai tây củ to cắt đôi cũng hầm mềm nhưng không ngấm gia vị lắm, nghiền nhuyễn rồi rưới canh vào thì ngon hơn. Có cả rau và nấm kim châm nữa. Gọi thêm rau cải ăn lẩu không mất phí :D
++ Đồ uống ở đây ngon nè. Chanh tươi, sinh tố xoài, nước dứa, giấm lựu và ép ổi đều ngon. 
+Ở đây còn có bingsoo tráng miệng. 
+- Nhân viên đáng yêu, thân thiện và chu đáo. Toàn hot boy. Các bạn í đeo khăn quàng đ, hỏi mới biết í là khách là thầy cô giáo còn các bạn phục vụ là học sinh chăm ngoan vâng lời thầy cô ))
+ Giá đắt hơn các quán Hàn thông thường một chút, nhưng chất lượng tương xứng với giá tiền. Sẽ còn quay lại nhiều!</t>
+  </si>
+  <si>
+    <t>Lòng “Chát” thật, trừ bát cháo ra chỗ này là combo đã giảm giá còn 269k cho 2-3 người, có 1 lòng luộc thập cẩm, 1 mẹt lòng nướng, 1 tiết luộc với hai trà đá. Đồ ăn khá sạch sẽ, an toàn (vì thế mà chát chăng 🤪), lòng gan ... luộc không bị đắng hôi gì, nhất là lòng non, còn dồi mỡ không ngon nhất đĩa. Mẹt lòng nướng thì ướp ngũ vị hương hơi hắc, nhưng mà rất ô kê, thích món này nhất vì nó đậm đà béo béo, tiết luộc cũng được, cháo thì sánh nhưng hương vị cũng bình thường thui, mắm tôm pha cũng được. • Túm lại không đến mức tung hô như trên mạng đâu, được cái sạch, điều hoà phè phè. Đang có cái voucher 200k nên ăn cũng bớt xót nhiều 😝. • • Nhân viên cũng vui vẻ xởi lởi . Không gian nhỏ , vị trí nhìn hơi khó</t>
+  </si>
+  <si>
+    <t>Khu ẩm thực với đa dạng đồ lại còn bày trí đẹp nên là rất hấp dẫn đối với những đứa cuồng ăn uống như mình Đồ ăn giá cả phải không quá Tuy nhiên về chất lượng thì chưa thật sự ấn tượng Mình thấy ổn thôi chứ chưa thực sự có vài món để ngoài lâu nên bị nguội ăn không ngon Kem trà xanh dù nhưng mình ăn thấy vị cũng bình bánh ngọt chỉ có nhân viên thu không có nhân viên giám tự mình lấy bánh xong rồi mang qua thanh Đúng kiểu đề cao sự tự giác và trung thực của người Nhật</t>
+  </si>
+  <si>
+    <t>Không gian đậm chất kiểu hơi cổ kính Nhạc lãng bít tết có điều chất lượng có vẻ không ngon đc như ngày Quán nhất là vào tầm Nhân viên phục vụ Giá cũng khá đối với mình thì không cao quá cũng không thấp</t>
+  </si>
+  <si>
+    <t>Cơm gà nấm trong niêu kiểu Cơm nấu luôn trong niêu nên ăn hơi khô và Được cái gà thơm nấm hương béo và ý hải sản có sốt bị chua Mỳ có mấy miếng ăn không được tươi viên vẫn rất lịch thiệp và thân lava trà xanh một viên kem bên trên có một ít kem tươi trang Kem rất ngon và thơm mùi trà xanh nhưng giá còn cao</t>
+  </si>
+  <si>
+    <t>Nhà hàng Swing ở tầng số Tràng vị trí đẹp mà quán cũng đẹp Quán phục vụ đồ ăn và đồ uống cả Ăn sáng hơi nghèo mấy món bún nói chung không ngon ra vị phở và bún bữa sáng kiểu Anh và mấy món bánh mì là ok Đồ uống không có món gì đặc biệt chất lượng bình không xuất sắc cũng không ngon Buổi trưa mình hay gọi cơm theo có đủ các món kèm với rau và theo kiểu cơm văn phòng Buổi trưa thì rất đông vì quanh đó nhiều văn Buổi tối vắng và mọi người có vẻ thường lên tầng để nghe nhạc nhiều hơn Nhân viên ở đây trông sáng rất lịch thân và quan tâm đến Nhà mình đến ăn vài lần là nhớ mặt và chơi với em bé nhà mình rất vui Nói chung mỗi lần đến Swing mình thấy rất happy và muốn quay lại nhiều lần</t>
+  </si>
+  <si>
+    <t>Đi ngang thấy ghé vào thôi chứ cũng không nghe nhắc Nhưng ăn cũng không đến nỗi Thích nhất là quán có bảng giá rõ không sợ bị cuốn lợn hay gà không nhận biết Bề ngoài vị cũng không Có bánh cuốn trứng khác Sài Đó là tráng bánh xong cho trứng vào để hơi sống khác với Sài Gòn là bánh có sẵn trứng luôn ra màu vàng ăn kèm không ngon thấy bột Nước ăn kèm do mình người Nam thấy không quen cho nói chung là có dịp sẽ ghé Một phần do bác bán hàng dễ</t>
+  </si>
+  <si>
+    <t>Mình đã uống rất nhiều lần rồi bây giờ mới đăng bài nhân viên ở đây cũng rất thân thiện nè đồ uống ngon nè topping nè và trà sữa cũng ngon nữa nhưng có nhiều loại thì lại không ngon như là trà blach tea và trà sữa còn trà sữa trà xanh kem trà xanh kem gì nữa ý thì lại rất ngon luôn ngon không cưỡng nổi vafmooix lần đến đây mình chủ yếu toàn uống mấy vị này không gian quán rộng view đẹp nữa tóm lại là tuyệt vờ mỗi tội giá hơi đắt đó nha</t>
+  </si>
+  <si>
+    <t>Chân gà tàu xì không ngon cảm giác chân gà không ngấm gia vị với không để lại vị gì khi ăn Nhưng đen vải đường và xanh sữa full đường thì nên gọi Nếu thích trà đào thì nên gọi đường và chanh leo thì nên gọi full Ngoài ra thì bánh bao xá xíu là thứ mình thấy ngon nhất</t>
+  </si>
+  <si>
+    <t>Quán toạ lạc ngay gần ngã tư Thái Chùa dễ Không gian quán khá lạ và bắt mắt đồ uống không ngon Ở mức bình thường Nhân viên phục vụ khá là nice giá cả hợp lí</t>
+  </si>
+  <si>
+    <t>paris gateaux luôn là điểm chọn đầu tiên khi mà mình muốn học bài. Không gian rộng rãi, wifi tốt và đặc biệt là sự yên tĩnh ^^ Thế nên là học và làm việc là cực kì hiệu quả ạ. Ở đây thì các loại bánh thì khỏi chê về chất lượng rồi ạ chỉ có điều 1 số loại giá hơi cao 1 chút. Đồ uống thì không ngon cho lắm, các loại trà thông thường thì không phải ai cũng uống được vì tùy khẩu vị sở thích từng người. Còn mình thì hay gọi trà rồi mix thêm kem +10k uống ngon hơn hẳn ạ ^^</t>
+  </si>
+  <si>
+    <t>Đúng như tên gọi lòng “chát” giá cũng hơi chát đối với sinh viên như mình. Mình có gọi 1 đĩa lòng thập cẩm như hình gồm lòng, gan, phổi..., đối với 1 đứa ko thích nội tạng như mình thì thấy cũng khá bình thường. Điểm cộng là đồ ăn nhìn sạch sẽ. Chắc do mình không thích còn mọi người khen cũng khá nhiều. Mắm tôm mình thấy không ngon, khá là mặn 😭 Hy vọng quán sẽ khắc phục. Điểm cộng nữa là quán sạch sẽ, rau sống sạch, nhân viên nhiệt tình ngoan ngoãn Giá khoảng ~150-250k/người tuỳ sức ăn 🤣</t>
+  </si>
+  <si>
+    <t>Vị trí: mặt tiền nên ko khó tìm cho lắm nhưng quán hơi nhỏ. Trang trí dễ thương, nếu đi ít người sẽ thấy quán rất ấm áp Giá cả: hợp lý, không quá mắc cho 1 cuộc tình. Thức ăn: ngon, không quá ngấy. Đồ ăn món nào món đó siêu chất lượng, ko uổng tiền xíu nào. Tuy nhiên kimbap thì hôm đầu tiên mình ăn thì cơm cứng và ăn thấy ko ngon lắm, canh kimchi thì chỉ có vài miếng thịt nhỏ li ti nên ăn thấy ko hấp dẫn như mấy chỗ trước mình ăn. Vô thì được bonus 1 chén kimchi ăn kèm. Kimchi quán làm rất ngon, mình rất thích. Có canh đậu tương gì đó thấy ngon hơn canh kim chi nè. Còn lẩu thì chưa ăn nhưng nhìn quán bê ra thấy hấp dẫn lắm Điểm trừ: ăn thì mình ngồi bàn gần cửa ra vào bếp nên nhân viên cứ đứng trước bàn mình nhìn cảm thấy mất tự nhiên. Đồ ăn làm hôm nhanh hôm lâu Nói chung là theo mình đồ ăn quán hợp lý rồi. Quán nên có cái thăm dò ý kiến khách sau mỗi bữa ăn để cải thiện món ăn tốt hơn nha</t>
+  </si>
+  <si>
+    <t>Đặt giao hàng qua now thấy giá cả khá tốt .Bánh gạo ko đặc sắc lắm với hơi ngán nữa nhưng cơm trộn thì tuyệt thịt bò siêu nhiều .Ăn xong no cành hông ko có người ăn phụ chắc ăn ko hết</t>
+  </si>
+  <si>
+    <t>lần đầu mình ăn khá vừa ý lần này order về nhà . thì tok lạt tèo ah còn lại vừa ý</t>
+  </si>
+  <si>
+    <t>Tụi mình đi ba người tầm 4h chiều nên không quá đông. Không gian quán nhỏ nhưng ít người thì không ngộp lắm. 🍚 Cơm trộn đồ ăn nhiều, chất lượng. Có điều sốt hơi mặn nên tụi mình đổ cả chén cơm trắng ăn kèm súp bulgogi vào trộn lên ăn mới vừa. 🍣 Kimbap chiên ngon, nóng giòn cuộn to lớp bột áo ngoài không quá dày như những chỗ khác, có điều sốt chấm hơi ít. 🍲 Súp bulgogi ngon, chất lượng mang ra còn sôi ùng ục. Quán để trong thố đá nên giữ nóng lâu. Thịt bò nhiều chứ không phải loe hoe vài miếng. 🍜 Mì bibim guksu là mì lạnh, món ăn ở ngoài hơi khác với hình trong menu. Món này quán nấu hơi bị ngọt. 🍴 Về tổng thể thì thấy đồ ăn chất lượng ổn so vs giá cả. Hầu hết thức ăn quán đều nấu hơi ngọt một xíu nhưng điểm cộng là quán có cho nước đá uống nếu không gọi nước.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Không gian tầng dưới chật, ít chỗ ngồi, bàn ghế ngồi sát nhau hơi khó chịu tí. Lẩu ăn ngon, nhiều Giá cả rẻ</t>
+  </si>
+  <si>
+    <t>Mình đã ăn ở đây và những chi nhánh khác nhiều lần. Cơm và đồ ăn khá ngon và hợp với khẩu vị của mình. Tuy nhiên đồ ăn hơi ngọt nên có thể không phù hợp với khẩu vị của nhiều người. Không gian quán rộng rãi thoáng mát. Cách phục vụ khá chuyên nghiệp và nhanh chóng. Tuy nhiên sẽ gây bối rối cho những khách lần đầu ghé quán. Vị trí thì rất dễ tìm và dễ nhìn. Giá cả tuy không đẹp nhưng mình thấy nó cũng phù hợp với chất lượng thức ăn và chất lượng phục vụ.</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Lâu lâu khách lại rất đông mà không gian thì có hạn, thành ra nhiều lần đi về. Mà nhân viên rất tùy lúc. Được cái bánh ngon, theo mình là ngon hơn pizza hut.</t>
+  </si>
+  <si>
+    <t>Từ ngày Domino có thêm vị Kid Mania thì mình mới thường xuyên ăn ở Domino. Trước đây cảm thấy vị ở đây không ngon và không gian quán thì khá nhỏ Mình khá thích dịch vụ giao hàng của Domino. Mỗi lần mình đặt thì lúc nào cũng giao sớm hơn giờ hẹn. Có lần mình đặt bánh vào h cao điểm và trời mưa to, hẻm nhà mình cũng ngập nữa. Vậy mà canh đồng hồ bạn giao hàng giao đúng h hẹn k trễ 1p luôn mới sợ chứ :3 bánh thì vẫn nóng thơm như vừa mới ra lò. Có điều mình nghĩ mấy bạn giao hàng nên mang thêm tiền để thối khách. Có lần mình đưa 500k thối lại mình 300k mà có tờ 200k rách cả góc. Bạn đó bảo k còn tiền khác thế là mình phải ngậm ngùi cầm tờ rách :(</t>
+  </si>
+  <si>
+    <t>Trưa nhà mình ghé đây ăn Đang có chương trình km gọi 1 phần 159k đc tặng 1 cái gối vuông xinh xinh Phần 159k gồm 2 miếng gà, 1 phần mỳ ý, 2 ly nước ngọt, 1 phần cơm gà sốt cay, 2 cây kem cốm Mình thấy jollibee là ăn ngon nhất, gà k có mặn như KfC, nhưng nhân viên có vẻ k thân thiện, chán lắm Bàn ghế sắp xếp cũng ổn, hơi chật, máy lạnh k mát.....tương để lấy thoải mái, thích điều này nhất. Có chỗ rửa tay sạch sẽ</t>
+  </si>
+  <si>
+    <t>7,5</t>
+  </si>
+  <si>
+    <t>Giáng sinh vừa rồi dẫn thằng nhóc ở nhà đi ăn gà rán. Gà giòn, thịt gà mềm, ngon. Quán nhỏ, đông, phải chờ lâu. Combo, món ăn không mắc, vừa túi tiền. Mong có thể cải thiện không gian.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -4616,13 +4713,33 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4631,7 +4748,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4664,6 +4781,18 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -44905,6 +45034,856 @@
       <c r="Y1177" s="3"/>
       <c r="Z1177" s="3"/>
     </row>
+    <row r="1178" ht="14.25" customHeight="1">
+      <c r="A1178" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1178" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1178" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1178" s="3"/>
+      <c r="E1178" s="3"/>
+      <c r="F1178" s="3"/>
+      <c r="G1178" s="3"/>
+      <c r="H1178" s="3"/>
+      <c r="I1178" s="3"/>
+      <c r="J1178" s="3"/>
+      <c r="K1178" s="3"/>
+      <c r="L1178" s="3"/>
+      <c r="M1178" s="3"/>
+      <c r="N1178" s="3"/>
+      <c r="O1178" s="3"/>
+      <c r="P1178" s="3"/>
+      <c r="Q1178" s="3"/>
+      <c r="R1178" s="3"/>
+      <c r="S1178" s="3"/>
+      <c r="T1178" s="3"/>
+      <c r="U1178" s="3"/>
+      <c r="V1178" s="3"/>
+      <c r="W1178" s="3"/>
+      <c r="X1178" s="3"/>
+      <c r="Y1178" s="3"/>
+      <c r="Z1178" s="3"/>
+    </row>
+    <row r="1179" ht="14.25" customHeight="1">
+      <c r="A1179" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1179" s="10" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1179" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1179" s="3"/>
+      <c r="E1179" s="3"/>
+      <c r="F1179" s="3"/>
+      <c r="G1179" s="3"/>
+      <c r="H1179" s="3"/>
+      <c r="I1179" s="3"/>
+      <c r="J1179" s="3"/>
+      <c r="K1179" s="3"/>
+      <c r="L1179" s="3"/>
+      <c r="M1179" s="3"/>
+      <c r="N1179" s="3"/>
+      <c r="O1179" s="3"/>
+      <c r="P1179" s="3"/>
+      <c r="Q1179" s="3"/>
+      <c r="R1179" s="3"/>
+      <c r="S1179" s="3"/>
+      <c r="T1179" s="3"/>
+      <c r="U1179" s="3"/>
+      <c r="V1179" s="3"/>
+      <c r="W1179" s="3"/>
+      <c r="X1179" s="3"/>
+      <c r="Y1179" s="3"/>
+      <c r="Z1179" s="3"/>
+    </row>
+    <row r="1180" ht="14.25" customHeight="1">
+      <c r="A1180" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1180" s="12" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1180" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1180" s="3"/>
+      <c r="E1180" s="3"/>
+      <c r="F1180" s="3"/>
+      <c r="G1180" s="3"/>
+      <c r="H1180" s="3"/>
+      <c r="I1180" s="3"/>
+      <c r="J1180" s="3"/>
+      <c r="K1180" s="3"/>
+      <c r="L1180" s="3"/>
+      <c r="M1180" s="3"/>
+      <c r="N1180" s="3"/>
+      <c r="O1180" s="3"/>
+      <c r="P1180" s="3"/>
+      <c r="Q1180" s="3"/>
+      <c r="R1180" s="3"/>
+      <c r="S1180" s="3"/>
+      <c r="T1180" s="3"/>
+      <c r="U1180" s="3"/>
+      <c r="V1180" s="3"/>
+      <c r="W1180" s="3"/>
+      <c r="X1180" s="3"/>
+      <c r="Y1180" s="3"/>
+      <c r="Z1180" s="3"/>
+    </row>
+    <row r="1181" ht="14.25" customHeight="1">
+      <c r="A1181" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1181" s="13" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1181" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1181" s="3"/>
+      <c r="E1181" s="3"/>
+      <c r="F1181" s="3"/>
+      <c r="G1181" s="3"/>
+      <c r="H1181" s="3"/>
+      <c r="I1181" s="3"/>
+      <c r="J1181" s="3"/>
+      <c r="K1181" s="3"/>
+      <c r="L1181" s="3"/>
+      <c r="M1181" s="3"/>
+      <c r="N1181" s="3"/>
+      <c r="O1181" s="3"/>
+      <c r="P1181" s="3"/>
+      <c r="Q1181" s="3"/>
+      <c r="R1181" s="3"/>
+      <c r="S1181" s="3"/>
+      <c r="T1181" s="3"/>
+      <c r="U1181" s="3"/>
+      <c r="V1181" s="3"/>
+      <c r="W1181" s="3"/>
+      <c r="X1181" s="3"/>
+      <c r="Y1181" s="3"/>
+      <c r="Z1181" s="3"/>
+    </row>
+    <row r="1182" ht="14.25" customHeight="1">
+      <c r="A1182" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1182" s="12" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1182" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1182" s="3"/>
+      <c r="E1182" s="3"/>
+      <c r="F1182" s="3"/>
+      <c r="G1182" s="3"/>
+      <c r="H1182" s="3"/>
+      <c r="I1182" s="3"/>
+      <c r="J1182" s="3"/>
+      <c r="K1182" s="3"/>
+      <c r="L1182" s="3"/>
+      <c r="M1182" s="3"/>
+      <c r="N1182" s="3"/>
+      <c r="O1182" s="3"/>
+      <c r="P1182" s="3"/>
+      <c r="Q1182" s="3"/>
+      <c r="R1182" s="3"/>
+      <c r="S1182" s="3"/>
+      <c r="T1182" s="3"/>
+      <c r="U1182" s="3"/>
+      <c r="V1182" s="3"/>
+      <c r="W1182" s="3"/>
+      <c r="X1182" s="3"/>
+      <c r="Y1182" s="3"/>
+      <c r="Z1182" s="3"/>
+    </row>
+    <row r="1183" ht="14.25" customHeight="1">
+      <c r="A1183" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1183" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1183" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1183" s="3"/>
+      <c r="E1183" s="3"/>
+      <c r="F1183" s="3"/>
+      <c r="G1183" s="3"/>
+      <c r="H1183" s="3"/>
+      <c r="I1183" s="3"/>
+      <c r="J1183" s="3"/>
+      <c r="K1183" s="3"/>
+      <c r="L1183" s="3"/>
+      <c r="M1183" s="3"/>
+      <c r="N1183" s="3"/>
+      <c r="O1183" s="3"/>
+      <c r="P1183" s="3"/>
+      <c r="Q1183" s="3"/>
+      <c r="R1183" s="3"/>
+      <c r="S1183" s="3"/>
+      <c r="T1183" s="3"/>
+      <c r="U1183" s="3"/>
+      <c r="V1183" s="3"/>
+      <c r="W1183" s="3"/>
+      <c r="X1183" s="3"/>
+      <c r="Y1183" s="3"/>
+      <c r="Z1183" s="3"/>
+    </row>
+    <row r="1184" ht="14.25" customHeight="1">
+      <c r="A1184" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1184" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1184" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1184" s="3"/>
+      <c r="E1184" s="3"/>
+      <c r="F1184" s="3"/>
+      <c r="G1184" s="3"/>
+      <c r="H1184" s="3"/>
+      <c r="I1184" s="3"/>
+      <c r="J1184" s="3"/>
+      <c r="K1184" s="3"/>
+      <c r="L1184" s="3"/>
+      <c r="M1184" s="3"/>
+      <c r="N1184" s="3"/>
+      <c r="O1184" s="3"/>
+      <c r="P1184" s="3"/>
+      <c r="Q1184" s="3"/>
+      <c r="R1184" s="3"/>
+      <c r="S1184" s="3"/>
+      <c r="T1184" s="3"/>
+      <c r="U1184" s="3"/>
+      <c r="V1184" s="3"/>
+      <c r="W1184" s="3"/>
+      <c r="X1184" s="3"/>
+      <c r="Y1184" s="3"/>
+      <c r="Z1184" s="3"/>
+    </row>
+    <row r="1185" ht="14.25" customHeight="1">
+      <c r="A1185" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1185" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1185" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1185" s="3"/>
+      <c r="E1185" s="3"/>
+      <c r="F1185" s="3"/>
+      <c r="G1185" s="3"/>
+      <c r="H1185" s="3"/>
+      <c r="I1185" s="3"/>
+      <c r="J1185" s="3"/>
+      <c r="K1185" s="3"/>
+      <c r="L1185" s="3"/>
+      <c r="M1185" s="3"/>
+      <c r="N1185" s="3"/>
+      <c r="O1185" s="3"/>
+      <c r="P1185" s="3"/>
+      <c r="Q1185" s="3"/>
+      <c r="R1185" s="3"/>
+      <c r="S1185" s="3"/>
+      <c r="T1185" s="3"/>
+      <c r="U1185" s="3"/>
+      <c r="V1185" s="3"/>
+      <c r="W1185" s="3"/>
+      <c r="X1185" s="3"/>
+      <c r="Y1185" s="3"/>
+      <c r="Z1185" s="3"/>
+    </row>
+    <row r="1186" ht="14.25" customHeight="1">
+      <c r="A1186" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1186" s="12" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1186" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1186" s="3"/>
+      <c r="E1186" s="3"/>
+      <c r="F1186" s="3"/>
+      <c r="G1186" s="3"/>
+      <c r="H1186" s="3"/>
+      <c r="I1186" s="3"/>
+      <c r="J1186" s="3"/>
+      <c r="K1186" s="3"/>
+      <c r="L1186" s="3"/>
+      <c r="M1186" s="3"/>
+      <c r="N1186" s="3"/>
+      <c r="O1186" s="3"/>
+      <c r="P1186" s="3"/>
+      <c r="Q1186" s="3"/>
+      <c r="R1186" s="3"/>
+      <c r="S1186" s="3"/>
+      <c r="T1186" s="3"/>
+      <c r="U1186" s="3"/>
+      <c r="V1186" s="3"/>
+      <c r="W1186" s="3"/>
+      <c r="X1186" s="3"/>
+      <c r="Y1186" s="3"/>
+      <c r="Z1186" s="3"/>
+    </row>
+    <row r="1187" ht="14.25" customHeight="1">
+      <c r="A1187" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1187" s="12" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1187" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1187" s="3"/>
+      <c r="E1187" s="3"/>
+      <c r="F1187" s="3"/>
+      <c r="G1187" s="3"/>
+      <c r="H1187" s="3"/>
+      <c r="I1187" s="3"/>
+      <c r="J1187" s="3"/>
+      <c r="K1187" s="3"/>
+      <c r="L1187" s="3"/>
+      <c r="M1187" s="3"/>
+      <c r="N1187" s="3"/>
+      <c r="O1187" s="3"/>
+      <c r="P1187" s="3"/>
+      <c r="Q1187" s="3"/>
+      <c r="R1187" s="3"/>
+      <c r="S1187" s="3"/>
+      <c r="T1187" s="3"/>
+      <c r="U1187" s="3"/>
+      <c r="V1187" s="3"/>
+      <c r="W1187" s="3"/>
+      <c r="X1187" s="3"/>
+      <c r="Y1187" s="3"/>
+      <c r="Z1187" s="3"/>
+    </row>
+    <row r="1188" ht="14.25" customHeight="1">
+      <c r="A1188" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1188" s="12" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1188" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1188" s="3"/>
+      <c r="E1188" s="3"/>
+      <c r="F1188" s="3"/>
+      <c r="G1188" s="3"/>
+      <c r="H1188" s="3"/>
+      <c r="I1188" s="3"/>
+      <c r="J1188" s="3"/>
+      <c r="K1188" s="3"/>
+      <c r="L1188" s="3"/>
+      <c r="M1188" s="3"/>
+      <c r="N1188" s="3"/>
+      <c r="O1188" s="3"/>
+      <c r="P1188" s="3"/>
+      <c r="Q1188" s="3"/>
+      <c r="R1188" s="3"/>
+      <c r="S1188" s="3"/>
+      <c r="T1188" s="3"/>
+      <c r="U1188" s="3"/>
+      <c r="V1188" s="3"/>
+      <c r="W1188" s="3"/>
+      <c r="X1188" s="3"/>
+      <c r="Y1188" s="3"/>
+      <c r="Z1188" s="3"/>
+    </row>
+    <row r="1189" ht="14.25" customHeight="1">
+      <c r="A1189" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1189" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1189" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1189" s="3"/>
+      <c r="E1189" s="3"/>
+      <c r="F1189" s="3"/>
+      <c r="G1189" s="3"/>
+      <c r="H1189" s="3"/>
+      <c r="I1189" s="3"/>
+      <c r="J1189" s="3"/>
+      <c r="K1189" s="3"/>
+      <c r="L1189" s="3"/>
+      <c r="M1189" s="3"/>
+      <c r="N1189" s="3"/>
+      <c r="O1189" s="3"/>
+      <c r="P1189" s="3"/>
+      <c r="Q1189" s="3"/>
+      <c r="R1189" s="3"/>
+      <c r="S1189" s="3"/>
+      <c r="T1189" s="3"/>
+      <c r="U1189" s="3"/>
+      <c r="V1189" s="3"/>
+      <c r="W1189" s="3"/>
+      <c r="X1189" s="3"/>
+      <c r="Y1189" s="3"/>
+      <c r="Z1189" s="3"/>
+    </row>
+    <row r="1190" ht="14.25" customHeight="1">
+      <c r="A1190" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1190" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1190" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1190" s="3"/>
+      <c r="E1190" s="3"/>
+      <c r="F1190" s="3"/>
+      <c r="G1190" s="3"/>
+      <c r="H1190" s="3"/>
+      <c r="I1190" s="3"/>
+      <c r="J1190" s="3"/>
+      <c r="K1190" s="3"/>
+      <c r="L1190" s="3"/>
+      <c r="M1190" s="3"/>
+      <c r="N1190" s="3"/>
+      <c r="O1190" s="3"/>
+      <c r="P1190" s="3"/>
+      <c r="Q1190" s="3"/>
+      <c r="R1190" s="3"/>
+      <c r="S1190" s="3"/>
+      <c r="T1190" s="3"/>
+      <c r="U1190" s="3"/>
+      <c r="V1190" s="3"/>
+      <c r="W1190" s="3"/>
+      <c r="X1190" s="3"/>
+      <c r="Y1190" s="3"/>
+      <c r="Z1190" s="3"/>
+    </row>
+    <row r="1191" ht="14.25" customHeight="1">
+      <c r="A1191" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1191" s="12" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1191" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1191" s="3"/>
+      <c r="E1191" s="3"/>
+      <c r="F1191" s="3"/>
+      <c r="G1191" s="3"/>
+      <c r="H1191" s="3"/>
+      <c r="I1191" s="3"/>
+      <c r="J1191" s="3"/>
+      <c r="K1191" s="3"/>
+      <c r="L1191" s="3"/>
+      <c r="M1191" s="3"/>
+      <c r="N1191" s="3"/>
+      <c r="O1191" s="3"/>
+      <c r="P1191" s="3"/>
+      <c r="Q1191" s="3"/>
+      <c r="R1191" s="3"/>
+      <c r="S1191" s="3"/>
+      <c r="T1191" s="3"/>
+      <c r="U1191" s="3"/>
+      <c r="V1191" s="3"/>
+      <c r="W1191" s="3"/>
+      <c r="X1191" s="3"/>
+      <c r="Y1191" s="3"/>
+      <c r="Z1191" s="3"/>
+    </row>
+    <row r="1192" ht="14.25" customHeight="1">
+      <c r="A1192" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1192" s="12" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1192" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1192" s="3"/>
+      <c r="E1192" s="3"/>
+      <c r="F1192" s="3"/>
+      <c r="G1192" s="3"/>
+      <c r="H1192" s="3"/>
+      <c r="I1192" s="3"/>
+      <c r="J1192" s="3"/>
+      <c r="K1192" s="3"/>
+      <c r="L1192" s="3"/>
+      <c r="M1192" s="3"/>
+      <c r="N1192" s="3"/>
+      <c r="O1192" s="3"/>
+      <c r="P1192" s="3"/>
+      <c r="Q1192" s="3"/>
+      <c r="R1192" s="3"/>
+      <c r="S1192" s="3"/>
+      <c r="T1192" s="3"/>
+      <c r="U1192" s="3"/>
+      <c r="V1192" s="3"/>
+      <c r="W1192" s="3"/>
+      <c r="X1192" s="3"/>
+      <c r="Y1192" s="3"/>
+      <c r="Z1192" s="3"/>
+    </row>
+    <row r="1193" ht="14.25" customHeight="1">
+      <c r="A1193" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1193" s="14" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1193" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1193" s="3"/>
+      <c r="E1193" s="3"/>
+      <c r="F1193" s="3"/>
+      <c r="G1193" s="3"/>
+      <c r="H1193" s="3"/>
+      <c r="I1193" s="3"/>
+      <c r="J1193" s="3"/>
+      <c r="K1193" s="3"/>
+      <c r="L1193" s="3"/>
+      <c r="M1193" s="3"/>
+      <c r="N1193" s="3"/>
+      <c r="O1193" s="3"/>
+      <c r="P1193" s="3"/>
+      <c r="Q1193" s="3"/>
+      <c r="R1193" s="3"/>
+      <c r="S1193" s="3"/>
+      <c r="T1193" s="3"/>
+      <c r="U1193" s="3"/>
+      <c r="V1193" s="3"/>
+      <c r="W1193" s="3"/>
+      <c r="X1193" s="3"/>
+      <c r="Y1193" s="3"/>
+      <c r="Z1193" s="3"/>
+    </row>
+    <row r="1194" ht="14.25" customHeight="1">
+      <c r="A1194" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1194" s="14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1194" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1194" s="3"/>
+      <c r="E1194" s="3"/>
+      <c r="F1194" s="3"/>
+      <c r="G1194" s="3"/>
+      <c r="H1194" s="3"/>
+      <c r="I1194" s="3"/>
+      <c r="J1194" s="3"/>
+      <c r="K1194" s="3"/>
+      <c r="L1194" s="3"/>
+      <c r="M1194" s="3"/>
+      <c r="N1194" s="3"/>
+      <c r="O1194" s="3"/>
+      <c r="P1194" s="3"/>
+      <c r="Q1194" s="3"/>
+      <c r="R1194" s="3"/>
+      <c r="S1194" s="3"/>
+      <c r="T1194" s="3"/>
+      <c r="U1194" s="3"/>
+      <c r="V1194" s="3"/>
+      <c r="W1194" s="3"/>
+      <c r="X1194" s="3"/>
+      <c r="Y1194" s="3"/>
+      <c r="Z1194" s="3"/>
+    </row>
+    <row r="1195" ht="14.25" customHeight="1">
+      <c r="A1195" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1195" s="12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1195" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1195" s="3"/>
+      <c r="E1195" s="3"/>
+      <c r="F1195" s="3"/>
+      <c r="G1195" s="3"/>
+      <c r="H1195" s="3"/>
+      <c r="I1195" s="3"/>
+      <c r="J1195" s="3"/>
+      <c r="K1195" s="3"/>
+      <c r="L1195" s="3"/>
+      <c r="M1195" s="3"/>
+      <c r="N1195" s="3"/>
+      <c r="O1195" s="3"/>
+      <c r="P1195" s="3"/>
+      <c r="Q1195" s="3"/>
+      <c r="R1195" s="3"/>
+      <c r="S1195" s="3"/>
+      <c r="T1195" s="3"/>
+      <c r="U1195" s="3"/>
+      <c r="V1195" s="3"/>
+      <c r="W1195" s="3"/>
+      <c r="X1195" s="3"/>
+      <c r="Y1195" s="3"/>
+      <c r="Z1195" s="3"/>
+    </row>
+    <row r="1196" ht="14.25" customHeight="1">
+      <c r="A1196" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1196" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1196" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1196" s="3"/>
+      <c r="E1196" s="3"/>
+      <c r="F1196" s="3"/>
+      <c r="G1196" s="3"/>
+      <c r="H1196" s="3"/>
+      <c r="I1196" s="3"/>
+      <c r="J1196" s="3"/>
+      <c r="K1196" s="3"/>
+      <c r="L1196" s="3"/>
+      <c r="M1196" s="3"/>
+      <c r="N1196" s="3"/>
+      <c r="O1196" s="3"/>
+      <c r="P1196" s="3"/>
+      <c r="Q1196" s="3"/>
+      <c r="R1196" s="3"/>
+      <c r="S1196" s="3"/>
+      <c r="T1196" s="3"/>
+      <c r="U1196" s="3"/>
+      <c r="V1196" s="3"/>
+      <c r="W1196" s="3"/>
+      <c r="X1196" s="3"/>
+      <c r="Y1196" s="3"/>
+      <c r="Z1196" s="3"/>
+    </row>
+    <row r="1197" ht="14.25" customHeight="1">
+      <c r="A1197" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1197" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1197" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1197" s="3"/>
+      <c r="E1197" s="3"/>
+      <c r="F1197" s="3"/>
+      <c r="G1197" s="3"/>
+      <c r="H1197" s="3"/>
+      <c r="I1197" s="3"/>
+      <c r="J1197" s="3"/>
+      <c r="K1197" s="3"/>
+      <c r="L1197" s="3"/>
+      <c r="M1197" s="3"/>
+      <c r="N1197" s="3"/>
+      <c r="O1197" s="3"/>
+      <c r="P1197" s="3"/>
+      <c r="Q1197" s="3"/>
+      <c r="R1197" s="3"/>
+      <c r="S1197" s="3"/>
+      <c r="T1197" s="3"/>
+      <c r="U1197" s="3"/>
+      <c r="V1197" s="3"/>
+      <c r="W1197" s="3"/>
+      <c r="X1197" s="3"/>
+      <c r="Y1197" s="3"/>
+      <c r="Z1197" s="3"/>
+    </row>
+    <row r="1198" ht="14.25" customHeight="1">
+      <c r="A1198" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="B1198" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1198" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1198" s="3"/>
+      <c r="E1198" s="3"/>
+      <c r="F1198" s="3"/>
+      <c r="G1198" s="3"/>
+      <c r="H1198" s="3"/>
+      <c r="I1198" s="3"/>
+      <c r="J1198" s="3"/>
+      <c r="K1198" s="3"/>
+      <c r="L1198" s="3"/>
+      <c r="M1198" s="3"/>
+      <c r="N1198" s="3"/>
+      <c r="O1198" s="3"/>
+      <c r="P1198" s="3"/>
+      <c r="Q1198" s="3"/>
+      <c r="R1198" s="3"/>
+      <c r="S1198" s="3"/>
+      <c r="T1198" s="3"/>
+      <c r="U1198" s="3"/>
+      <c r="V1198" s="3"/>
+      <c r="W1198" s="3"/>
+      <c r="X1198" s="3"/>
+      <c r="Y1198" s="3"/>
+      <c r="Z1198" s="3"/>
+    </row>
+    <row r="1199" ht="14.25" customHeight="1">
+      <c r="A1199" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1199" s="14" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1199" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1199" s="3"/>
+      <c r="E1199" s="3"/>
+      <c r="F1199" s="3"/>
+      <c r="G1199" s="3"/>
+      <c r="H1199" s="3"/>
+      <c r="I1199" s="3"/>
+      <c r="J1199" s="3"/>
+      <c r="K1199" s="3"/>
+      <c r="L1199" s="3"/>
+      <c r="M1199" s="3"/>
+      <c r="N1199" s="3"/>
+      <c r="O1199" s="3"/>
+      <c r="P1199" s="3"/>
+      <c r="Q1199" s="3"/>
+      <c r="R1199" s="3"/>
+      <c r="S1199" s="3"/>
+      <c r="T1199" s="3"/>
+      <c r="U1199" s="3"/>
+      <c r="V1199" s="3"/>
+      <c r="W1199" s="3"/>
+      <c r="X1199" s="3"/>
+      <c r="Y1199" s="3"/>
+      <c r="Z1199" s="3"/>
+    </row>
+    <row r="1200" ht="14.25" customHeight="1">
+      <c r="A1200" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1200" s="14" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1200" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1200" s="3"/>
+      <c r="E1200" s="3"/>
+      <c r="F1200" s="3"/>
+      <c r="G1200" s="3"/>
+      <c r="H1200" s="3"/>
+      <c r="I1200" s="3"/>
+      <c r="J1200" s="3"/>
+      <c r="K1200" s="3"/>
+      <c r="L1200" s="3"/>
+      <c r="M1200" s="3"/>
+      <c r="N1200" s="3"/>
+      <c r="O1200" s="3"/>
+      <c r="P1200" s="3"/>
+      <c r="Q1200" s="3"/>
+      <c r="R1200" s="3"/>
+      <c r="S1200" s="3"/>
+      <c r="T1200" s="3"/>
+      <c r="U1200" s="3"/>
+      <c r="V1200" s="3"/>
+      <c r="W1200" s="3"/>
+      <c r="X1200" s="3"/>
+      <c r="Y1200" s="3"/>
+      <c r="Z1200" s="3"/>
+    </row>
+    <row r="1201" ht="14.25" customHeight="1">
+      <c r="A1201" s="11" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1201" s="12" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1201" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1201" s="3"/>
+      <c r="E1201" s="3"/>
+      <c r="F1201" s="3"/>
+      <c r="G1201" s="3"/>
+      <c r="H1201" s="3"/>
+      <c r="I1201" s="3"/>
+      <c r="J1201" s="3"/>
+      <c r="K1201" s="3"/>
+      <c r="L1201" s="3"/>
+      <c r="M1201" s="3"/>
+      <c r="N1201" s="3"/>
+      <c r="O1201" s="3"/>
+      <c r="P1201" s="3"/>
+      <c r="Q1201" s="3"/>
+      <c r="R1201" s="3"/>
+      <c r="S1201" s="3"/>
+      <c r="T1201" s="3"/>
+      <c r="U1201" s="3"/>
+      <c r="V1201" s="3"/>
+      <c r="W1201" s="3"/>
+      <c r="X1201" s="3"/>
+      <c r="Y1201" s="3"/>
+      <c r="Z1201" s="3"/>
+    </row>
+    <row r="1202" ht="14.25" customHeight="1">
+      <c r="A1202" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1202" s="12" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1202" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="D1202" s="3"/>
+      <c r="E1202" s="3"/>
+      <c r="F1202" s="3"/>
+      <c r="G1202" s="3"/>
+      <c r="H1202" s="3"/>
+      <c r="I1202" s="3"/>
+      <c r="J1202" s="3"/>
+      <c r="K1202" s="3"/>
+      <c r="L1202" s="3"/>
+      <c r="M1202" s="3"/>
+      <c r="N1202" s="3"/>
+      <c r="O1202" s="3"/>
+      <c r="P1202" s="3"/>
+      <c r="Q1202" s="3"/>
+      <c r="R1202" s="3"/>
+      <c r="S1202" s="3"/>
+      <c r="T1202" s="3"/>
+      <c r="U1202" s="3"/>
+      <c r="V1202" s="3"/>
+      <c r="W1202" s="3"/>
+      <c r="X1202" s="3"/>
+      <c r="Y1202" s="3"/>
+      <c r="Z1202" s="3"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
